--- a/biology/Médecine/Centre_hospitalier_de_Roanne/Centre_hospitalier_de_Roanne.xlsx
+++ b/biology/Médecine/Centre_hospitalier_de_Roanne/Centre_hospitalier_de_Roanne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier de Roanne est un établissement de santé public situé dans le département de  la Loire (42). Il dispose de 915 lits et places. 
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le projet de reconstruction/restructuration du site principal naît en mai 2003. C’est le regroupement des trois pôles de Médecine, Chirurgie et Femme-Enfant qui se concrétise, le tout formant un ensemble moderne, accueillant et de qualité.  Les nouveaux locaux sont ouverts en 2009.
 </t>
@@ -544,7 +558,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre hospitalier de Roanne offre ses services cliniques et médico-techniques organisés et répartis autour de sept grands pôles d’activité : Pôle Chirurgie / Bloc / Anesthésie ; Pôle Femme - Enfant ; Pôle Gériatrie ; Pôle Médecine et cancérologie ; Pôle Médico-technique ; Pôle Psychiatrie ; Pôle Médecine Intensive et vasculaire.
 </t>
@@ -577,8 +593,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Institut de formation en soins infirmiers (IFSI)
-L'IFSI est un établissement d'enseignement supérieur relevant du Ministère des affaires sociales, de la santé et des Droits des femmes[1].
+          <t>Institut de formation en soins infirmiers (IFSI)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'IFSI est un établissement d'enseignement supérieur relevant du Ministère des affaires sociales, de la santé et des Droits des femmes.
 </t>
         </is>
       </c>
@@ -607,7 +628,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre hospitalier de Roanne est accessible depuis la route nationale 7, sortie n°66.
 L’hôpital est implanté sur deux sites différents, le site principal à Roanne est desservi par la ligne de bus n°1 de la STAR (Arrêt Hôpital), le site de Bonvert à Mably est desservi par la ligne de bus n°4 de CREABUS (Arrêt Bonvert).
